--- a/biology/Zoologie/Episcada_hymenaea/Episcada_hymenaea.xlsx
+++ b/biology/Zoologie/Episcada_hymenaea/Episcada_hymenaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada hymenaea est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Episcada.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Episcada hymenaea a été décrite par Otto von Prittwitz (d) en 1865 sous le nom initial d’Ithonia hymenaea[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Episcada hymenaea a été décrite par Otto von Prittwitz (d) en 1865 sous le nom initial d’Ithonia hymenaea.
 </t>
         </is>
       </c>
@@ -542,17 +556,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada hymenaea  hymenaea ; présent au Venezuela, au Brésil et en Bolivie
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Episcada hymenaea  hymenaea ; présent au Venezuela, au Brésil et en Bolivie
 Episcada hymenaea caucana (Brown, 1970) ; présent en Colombie
 Episcada hymenaea centralis (Brown &amp; Mielke, 1970) ; présent au Brésil.
 Episcada hymenaea ssp ; présent  au Venezuela
 Episcada hymenaea ssp ; présent au Pérou
-Episcada hymenaea ssp ; présent au Pérou[1].
-Nom vernaculaire
-Episcada hymenaea se nomme Hymenaea Clearwing en anglais[2].
-</t>
+Episcada hymenaea ssp ; présent au Pérou.</t>
         </is>
       </c>
     </row>
@@ -577,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Liste des sous-espèces</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Episcada hymenaea est un papillon à l'abdomen mince, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave. Les ailes sont transparentes avec de très fines veines marron doré et une bordure orange à jaune d'or sur les bords costal, externe et interne avec en plus aux ailes antérieures une bordure de la cellule depuis le bord costal.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada hymenaea se nomme Hymenaea Clearwing en anglais.
 </t>
         </is>
       </c>
@@ -608,10 +627,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada hymenaea est un papillon à l'abdomen mince, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave. Les ailes sont transparentes avec de très fines veines marron doré et une bordure orange à jaune d'or sur les bords costal, externe et interne avec en plus aux ailes antérieures une bordure de la cellule depuis le bord costal.
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -634,15 +660,79 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Episcada_hymenaea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_hymenaea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada hymenaea est présent au Venezuela, en Colombie, en Équateur, dans le Nord de l'Argentine, au Paraguay, au Brésil, en Bolivie et au Pérou[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada hymenaea est présent au Venezuela, en Colombie, en Équateur, dans le Nord de l'Argentine, au Paraguay, au Brésil, en Bolivie et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Episcada_hymenaea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_hymenaea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Episcada hymenaea, sur Wikimedia CommonsEpiscada hymenaea, sur Wikispecies
 </t>
